--- a/database/KNN/Akaze_knn.xlsx
+++ b/database/KNN/Akaze_knn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="36">
   <si>
     <t>AKAZE</t>
   </si>
@@ -112,12 +112,42 @@
   <si>
     <t>akaze_knn_result.csv</t>
   </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Colonne2</t>
+  </si>
+  <si>
+    <t>Colonne3</t>
+  </si>
+  <si>
+    <t>Colonne4</t>
+  </si>
+  <si>
+    <t>Colonne5</t>
+  </si>
+  <si>
+    <t>Colonne6</t>
+  </si>
+  <si>
+    <t>Colonne7</t>
+  </si>
+  <si>
+    <t>Colonne8</t>
+  </si>
+  <si>
+    <t>Colonne9</t>
+  </si>
+  <si>
+    <t>Colonne10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +159,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,9 +192,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,6 +207,25 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="akaze_knn_result" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="E66:N68" totalsRowShown="0">
+  <autoFilter ref="E66:N68"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="Colonne2"/>
+    <tableColumn id="3" name="Colonne3"/>
+    <tableColumn id="4" name="Colonne4"/>
+    <tableColumn id="5" name="Colonne5"/>
+    <tableColumn id="6" name="Colonne6"/>
+    <tableColumn id="7" name="Colonne7"/>
+    <tableColumn id="8" name="Colonne8"/>
+    <tableColumn id="9" name="Colonne9"/>
+    <tableColumn id="10" name="Colonne10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15:Q24"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -466,7 +524,10 @@
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -619,40 +680,40 @@
       <c r="C14">
         <v>0.36199998855590798</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>0.5</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>0.6</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>0.65</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>0.7</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>0.75</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>0.8</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>0.85</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>0.9</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <v>0.95</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -666,7 +727,7 @@
       <c r="C15">
         <v>0.37599992752075101</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G15">
@@ -713,7 +774,7 @@
       <c r="C16">
         <v>0.355999946594238</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G16">
@@ -760,7 +821,7 @@
       <c r="C17">
         <v>0.37900018692016602</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G17">
@@ -807,7 +868,7 @@
       <c r="C18">
         <v>0.115000009536743</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G18">
@@ -854,7 +915,7 @@
       <c r="C19">
         <v>1.46800017356872</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19">
@@ -901,7 +962,7 @@
       <c r="C20">
         <v>0.78699994087219205</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G20">
@@ -948,7 +1009,7 @@
       <c r="C21">
         <v>0.134999990463256</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G21">
@@ -995,7 +1056,7 @@
       <c r="C22">
         <v>0.48499989509582497</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G22">
@@ -1042,7 +1103,7 @@
       <c r="C23">
         <v>0.105999946594238</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G23">
@@ -1089,7 +1150,7 @@
       <c r="C24" t="s">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G24">
@@ -2540,7 +2601,7 @@
         <v>0.80700016021728505</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2551,7 +2612,7 @@
         <v>0.17999982833862299</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -2561,8 +2622,38 @@
       <c r="C66">
         <v>0.65499997138976995</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="E66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M66" t="s">
+        <v>34</v>
+      </c>
+      <c r="N66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -2572,8 +2663,38 @@
       <c r="C67">
         <v>0.10899996757507301</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="E67">
+        <v>0.5</v>
+      </c>
+      <c r="F67">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G67">
+        <v>0.6</v>
+      </c>
+      <c r="H67">
+        <v>0.65</v>
+      </c>
+      <c r="I67">
+        <v>0.7</v>
+      </c>
+      <c r="J67">
+        <v>0.75</v>
+      </c>
+      <c r="K67">
+        <v>0.8</v>
+      </c>
+      <c r="L67">
+        <v>0.85</v>
+      </c>
+      <c r="M67">
+        <v>0.9</v>
+      </c>
+      <c r="N67">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2583,8 +2704,38 @@
       <c r="C68" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="E68">
+        <v>0.46009999116261718</v>
+      </c>
+      <c r="F68">
+        <v>0.57993332544962473</v>
+      </c>
+      <c r="G68">
+        <v>0.50679997603098459</v>
+      </c>
+      <c r="H68">
+        <v>0.50263333320617598</v>
+      </c>
+      <c r="I68">
+        <v>0.54539999961852914</v>
+      </c>
+      <c r="J68">
+        <v>0.54116666316985973</v>
+      </c>
+      <c r="K68">
+        <v>0.52743333975473905</v>
+      </c>
+      <c r="L68">
+        <v>0.516600020726521</v>
+      </c>
+      <c r="M68">
+        <v>0.49679998556772792</v>
+      </c>
+      <c r="N68">
+        <v>0.5222666740417472</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2595,7 +2746,7 @@
         <v>0.354999780654907</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2606,7 +2757,7 @@
         <v>0.40100002288818298</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2617,7 +2768,7 @@
         <v>0.37700009346008301</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2628,7 +2779,7 @@
         <v>0.42599987983703602</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2639,7 +2790,7 @@
         <v>0.123000144958496</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2650,7 +2801,7 @@
         <v>1.50999999046325</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2661,7 +2812,7 @@
         <v>0.80799984931945801</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -2672,7 +2823,7 @@
         <v>0.13700008392333901</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2683,7 +2834,7 @@
         <v>0.49399995803833002</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -2694,7 +2845,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -2705,7 +2856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -5601,6 +5752,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/database/KNN/Akaze_knn.xlsx
+++ b/database/KNN/Akaze_knn.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8460"/>
   </bookViews>
@@ -12,6 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="akaze_bf_knn_add" localSheetId="0">Feuil1!$R$29:$T$94</definedName>
     <definedName name="akaze_knn_result" localSheetId="0">Feuil1!$A$2:$C$342</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -20,7 +21,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="akaze_knn_result" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="1" name="akaze_bf_knn_add" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\ACHAR\Documents\PFEE\database\akaze_bf_knn_add.csv">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="akaze_knn_result" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\ACHAR\Documents\PFEE\database\akaze_knn_result.csv">
       <textFields count="3">
         <textField/>
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="48">
   <si>
     <t>AKAZE</t>
   </si>
@@ -142,6 +151,42 @@
   <si>
     <t>Colonne10</t>
   </si>
+  <si>
+    <t>new\condame_blurred.jpg</t>
+  </si>
+  <si>
+    <t>new\condame_lumino.jpg</t>
+  </si>
+  <si>
+    <t>new\likeblack_45.png</t>
+  </si>
+  <si>
+    <t>new\likeblack_cropped.jpg</t>
+  </si>
+  <si>
+    <t>new\memory_blurred.jpg</t>
+  </si>
+  <si>
+    <t>condame_blurred</t>
+  </si>
+  <si>
+    <t>condame_lumino</t>
+  </si>
+  <si>
+    <t>likeblack_45</t>
+  </si>
+  <si>
+    <t>likeblack_cropped</t>
+  </si>
+  <si>
+    <t>memory_blured</t>
+  </si>
+  <si>
+    <t>Colonne11</t>
+  </si>
+  <si>
+    <t>Colonne12</t>
+  </si>
 </sst>
 </file>
 
@@ -192,10 +237,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,7 +257,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="akaze_knn_result" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="akaze_bf_knn_add" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="akaze_knn_result" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -223,6 +278,29 @@
     <tableColumn id="8" name="Colonne8"/>
     <tableColumn id="9" name="Colonne9"/>
     <tableColumn id="10" name="Colonne10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="E72:P89" totalsRowShown="0">
+  <autoFilter ref="E72:P89">
+    <filterColumn colId="11"/>
+  </autoFilter>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="Colonne2"/>
+    <tableColumn id="3" name="Colonne3"/>
+    <tableColumn id="4" name="Colonne4"/>
+    <tableColumn id="5" name="Colonne5"/>
+    <tableColumn id="6" name="Colonne6"/>
+    <tableColumn id="7" name="Colonne7"/>
+    <tableColumn id="8" name="Colonne8"/>
+    <tableColumn id="9" name="Colonne9"/>
+    <tableColumn id="10" name="Colonne10"/>
+    <tableColumn id="11" name="Colonne11"/>
+    <tableColumn id="12" name="Colonne12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -513,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q342"/>
+  <dimension ref="A1:W342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="L87" workbookViewId="0">
+      <selection activeCell="W104" sqref="I104:W104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -524,10 +602,13 @@
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="14" max="15" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -811,7 +892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -858,7 +939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -905,7 +986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -916,43 +997,43 @@
         <v>1.46800017356872</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
         <v>18</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>4</v>
-      </c>
       <c r="O19">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="P19">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -963,43 +1044,43 @@
         <v>0.78699994087219205</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="O20">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="P20">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="Q20">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1010,7 +1091,7 @@
         <v>0.134999990463256</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1034,19 +1115,19 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>12</v>
       </c>
       <c r="P21">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q21">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1057,7 +1138,7 @@
         <v>0.48499989509582497</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1075,25 +1156,25 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P22">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q22">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +1185,7 @@
         <v>0.105999946594238</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1128,19 +1209,19 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P23">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q23">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1151,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1175,19 +1256,19 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P24">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q24">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1197,8 +1278,44 @@
       <c r="C25">
         <v>0.35300016403198198</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="F25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <v>40</v>
+      </c>
+      <c r="Q25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1208,8 +1325,44 @@
       <c r="C26">
         <v>0.39199995994567799</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>11</v>
+      </c>
+      <c r="P26">
+        <v>36</v>
+      </c>
+      <c r="Q26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1219,8 +1372,44 @@
       <c r="C27">
         <v>0.34400010108947698</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>14</v>
+      </c>
+      <c r="P27">
+        <v>39</v>
+      </c>
+      <c r="Q27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1230,41 +1419,44 @@
       <c r="C28">
         <v>0.404000043869018</v>
       </c>
-      <c r="E28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="O28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="F28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
+      <c r="P28">
+        <v>35</v>
+      </c>
+      <c r="Q28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1274,172 +1466,187 @@
       <c r="C29">
         <v>0.125</v>
       </c>
-      <c r="E29" s="1">
-        <f>AVERAGE(E30:E59)</f>
+      <c r="F29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>15</v>
+      </c>
+      <c r="P29">
+        <v>38</v>
+      </c>
+      <c r="Q29">
+        <v>100</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1.4709999561309799</v>
+      </c>
+      <c r="R30" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>6.2000036239624003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0.77999997138976995</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31">
+        <v>60</v>
+      </c>
+      <c r="T31">
+        <v>0.62599992752075195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.12999987602233801</v>
+      </c>
+      <c r="E32" s="1">
+        <f>AVERAGE(E33:E62)</f>
         <v>0.46009999116261718</v>
       </c>
-      <c r="F29" s="1">
-        <f t="shared" ref="F29:I29" si="0">AVERAGE(F30:F59)</f>
+      <c r="F32" s="1">
+        <f t="shared" ref="F32:I32" si="0">AVERAGE(F33:F62)</f>
         <v>0.57993332544962473</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G32" s="1">
         <f t="shared" si="0"/>
         <v>0.50679997603098459</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H32" s="1">
         <f t="shared" si="0"/>
         <v>0.50263333320617598</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I32" s="1">
         <f t="shared" si="0"/>
         <v>0.54539999961852914</v>
       </c>
-      <c r="J29" s="1">
-        <f t="shared" ref="J29" si="1">AVERAGE(J30:J59)</f>
+      <c r="J32" s="1">
+        <f t="shared" ref="J32" si="1">AVERAGE(J33:J62)</f>
         <v>0.54116666316985973</v>
       </c>
-      <c r="K29" s="1">
-        <f t="shared" ref="K29" si="2">AVERAGE(K30:K59)</f>
+      <c r="K32" s="1">
+        <f t="shared" ref="K32" si="2">AVERAGE(K33:K62)</f>
         <v>0.52743333975473905</v>
       </c>
-      <c r="L29" s="1">
-        <f t="shared" ref="L29:M29" si="3">AVERAGE(L30:L59)</f>
+      <c r="L32" s="1">
+        <f t="shared" ref="L32:M32" si="3">AVERAGE(L33:L62)</f>
         <v>0.516600020726521</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M32" s="1">
         <f t="shared" si="3"/>
         <v>0.49679998556772792</v>
       </c>
-      <c r="N29" s="1">
-        <f t="shared" ref="N29" si="4">AVERAGE(N30:N59)</f>
+      <c r="N32" s="1">
+        <f t="shared" ref="N32" si="4">AVERAGE(N33:N62)</f>
         <v>0.5222666740417472</v>
       </c>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>1.4709999561309799</v>
-      </c>
-      <c r="E30">
-        <v>0.357000112533569</v>
-      </c>
-      <c r="F30">
-        <v>0.35100007057189903</v>
-      </c>
-      <c r="G30">
-        <v>0.354999780654907</v>
-      </c>
-      <c r="H30">
-        <v>0.36299991607665999</v>
-      </c>
-      <c r="I30">
-        <v>0.347000122070312</v>
-      </c>
-      <c r="J30">
-        <v>0.36599993705749501</v>
-      </c>
-      <c r="K30">
-        <v>0.45799994468688898</v>
-      </c>
-      <c r="L30">
-        <v>0.37000012397766102</v>
-      </c>
-      <c r="M30">
-        <v>0.36599993705749501</v>
-      </c>
-      <c r="N30">
-        <v>0.35800004005432101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0.77999997138976995</v>
-      </c>
-      <c r="E31">
-        <v>0.38899993896484297</v>
-      </c>
-      <c r="F31">
-        <v>1.3840000629425</v>
-      </c>
-      <c r="G31">
-        <v>0.40100002288818298</v>
-      </c>
-      <c r="H31">
-        <v>0.39499998092651301</v>
-      </c>
-      <c r="I31">
-        <v>0.40000009536743097</v>
-      </c>
-      <c r="J31">
-        <v>0.47000002861022899</v>
-      </c>
-      <c r="K31">
-        <v>0.40499997138977001</v>
-      </c>
-      <c r="L31">
-        <v>0.40499997138977001</v>
-      </c>
-      <c r="M31">
-        <v>0.40499997138977001</v>
-      </c>
-      <c r="N31">
-        <v>0.50399994850158603</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0.12999987602233801</v>
-      </c>
-      <c r="E32">
-        <v>0.35800004005432101</v>
-      </c>
-      <c r="F32">
-        <v>0.57999992370605402</v>
-      </c>
-      <c r="G32">
-        <v>0.37700009346008301</v>
-      </c>
-      <c r="H32">
-        <v>0.34800004959106401</v>
-      </c>
-      <c r="I32">
-        <v>0.47300004959106401</v>
-      </c>
-      <c r="J32">
-        <v>0.34500002861022899</v>
-      </c>
-      <c r="K32">
-        <v>0.35799980163574202</v>
-      </c>
-      <c r="L32">
-        <v>0.37199997901916498</v>
-      </c>
-      <c r="M32">
-        <v>0.36599993705749501</v>
-      </c>
-      <c r="N32">
-        <v>0.45499992370605402</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="1"/>
+      <c r="R32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0.98099994659423795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1450,37 +1657,46 @@
         <v>0.48299980163574202</v>
       </c>
       <c r="E33">
-        <v>0.382999897003173</v>
+        <v>0.357000112533569</v>
       </c>
       <c r="F33">
-        <v>0.558000087738037</v>
+        <v>0.35100007057189903</v>
       </c>
       <c r="G33">
-        <v>0.42599987983703602</v>
+        <v>0.354999780654907</v>
       </c>
       <c r="H33">
-        <v>0.39199995994567799</v>
+        <v>0.36299991607665999</v>
       </c>
       <c r="I33">
-        <v>0.52099990844726496</v>
+        <v>0.347000122070312</v>
       </c>
       <c r="J33">
-        <v>0.38300013542175199</v>
+        <v>0.36599993705749501</v>
       </c>
       <c r="K33">
-        <v>0.40599989891052202</v>
+        <v>0.45799994468688898</v>
       </c>
       <c r="L33">
-        <v>0.39199995994567799</v>
+        <v>0.37000012397766102</v>
       </c>
       <c r="M33">
-        <v>0.41399979591369601</v>
+        <v>0.36599993705749501</v>
       </c>
       <c r="N33">
-        <v>0.48799991607665999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>0.35800004005432101</v>
+      </c>
+      <c r="R33" t="s">
+        <v>39</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0.63199996948242099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1491,37 +1707,46 @@
         <v>0.10899996757507301</v>
       </c>
       <c r="E34">
-        <v>0.125</v>
+        <v>0.38899993896484297</v>
       </c>
       <c r="F34">
-        <v>0.18600010871887199</v>
+        <v>1.3840000629425</v>
       </c>
       <c r="G34">
-        <v>0.123000144958496</v>
+        <v>0.40100002288818298</v>
       </c>
       <c r="H34">
-        <v>0.12299990653991601</v>
+        <v>0.39499998092651301</v>
       </c>
       <c r="I34">
-        <v>0.17299985885620101</v>
+        <v>0.40000009536743097</v>
       </c>
       <c r="J34">
-        <v>0.136000156402587</v>
+        <v>0.47000002861022899</v>
       </c>
       <c r="K34">
-        <v>0.126000165939331</v>
+        <v>0.40499997138977001</v>
       </c>
       <c r="L34">
-        <v>0.115000009536743</v>
+        <v>0.40499997138977001</v>
       </c>
       <c r="M34">
-        <v>0.130000114440917</v>
+        <v>0.40499997138977001</v>
       </c>
       <c r="N34">
-        <v>0.15599989891052199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>0.50399994850158603</v>
+      </c>
+      <c r="R34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0.10899996757507301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1532,37 +1757,46 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <v>1.4749999046325599</v>
+        <v>0.35800004005432101</v>
       </c>
       <c r="F35">
-        <v>2.1119999885559002</v>
+        <v>0.57999992370605402</v>
       </c>
       <c r="G35">
-        <v>1.50999999046325</v>
+        <v>0.37700009346008301</v>
       </c>
       <c r="H35">
-        <v>1.95099997520446</v>
+        <v>0.34800004959106401</v>
       </c>
       <c r="I35">
-        <v>2.0199999809265101</v>
+        <v>0.47300004959106401</v>
       </c>
       <c r="J35">
-        <v>1.50999999046325</v>
+        <v>0.34500002861022899</v>
       </c>
       <c r="K35">
-        <v>1.47699999809265</v>
+        <v>0.35799980163574202</v>
       </c>
       <c r="L35">
-        <v>1.46900010108947</v>
+        <v>0.37199997901916498</v>
       </c>
       <c r="M35">
-        <v>1.4939999580383301</v>
+        <v>0.36599993705749501</v>
       </c>
       <c r="N35">
-        <v>1.92499995231628</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>0.45499992370605402</v>
+      </c>
+      <c r="R35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1573,37 +1807,46 @@
         <v>0.35100007057189903</v>
       </c>
       <c r="E36">
-        <v>0.81900000572204501</v>
+        <v>0.382999897003173</v>
       </c>
       <c r="F36">
-        <v>0.89699983596801702</v>
+        <v>0.558000087738037</v>
       </c>
       <c r="G36">
-        <v>0.80799984931945801</v>
+        <v>0.42599987983703602</v>
       </c>
       <c r="H36">
-        <v>1.04900002479553</v>
+        <v>0.39199995994567799</v>
       </c>
       <c r="I36">
-        <v>1.0829999446868801</v>
+        <v>0.52099990844726496</v>
       </c>
       <c r="J36">
-        <v>1.0460000038146899</v>
+        <v>0.38300013542175199</v>
       </c>
       <c r="K36">
-        <v>0.87100005149841297</v>
+        <v>0.40599989891052202</v>
       </c>
       <c r="L36">
-        <v>0.80599999427795399</v>
+        <v>0.39199995994567799</v>
       </c>
       <c r="M36">
-        <v>1.09899997711181</v>
+        <v>0.41399979591369601</v>
       </c>
       <c r="N36">
-        <v>0.79299998283386197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>0.48799991607665999</v>
+      </c>
+      <c r="R36" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>0.110999822616577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1614,37 +1857,46 @@
         <v>1.3840000629425</v>
       </c>
       <c r="E37">
-        <v>0.14700007438659601</v>
+        <v>0.125</v>
       </c>
       <c r="F37">
-        <v>0.12800002098083399</v>
+        <v>0.18600010871887199</v>
       </c>
       <c r="G37">
-        <v>0.13700008392333901</v>
+        <v>0.123000144958496</v>
       </c>
       <c r="H37">
-        <v>0.14100003242492601</v>
+        <v>0.12299990653991601</v>
       </c>
       <c r="I37">
-        <v>0.125</v>
+        <v>0.17299985885620101</v>
       </c>
       <c r="J37">
-        <v>0.17700004577636699</v>
+        <v>0.136000156402587</v>
       </c>
       <c r="K37">
-        <v>0.13100004196166901</v>
+        <v>0.126000165939331</v>
       </c>
       <c r="L37">
-        <v>0.132999897003173</v>
+        <v>0.115000009536743</v>
       </c>
       <c r="M37">
-        <v>0.18000006675720201</v>
+        <v>0.130000114440917</v>
       </c>
       <c r="N37">
-        <v>0.12700009346008301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>0.15599989891052199</v>
+      </c>
+      <c r="R37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S37">
+        <v>66</v>
+      </c>
+      <c r="T37">
+        <v>0.69099998474121005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1655,37 +1907,46 @@
         <v>0.57999992370605402</v>
       </c>
       <c r="E38">
-        <v>0.47399997711181602</v>
+        <v>1.4749999046325599</v>
       </c>
       <c r="F38">
-        <v>0.46799993515014598</v>
+        <v>2.1119999885559002</v>
       </c>
       <c r="G38">
-        <v>0.49399995803833002</v>
+        <v>1.50999999046325</v>
       </c>
       <c r="H38">
-        <v>0.64400005340576105</v>
+        <v>1.95099997520446</v>
       </c>
       <c r="I38">
-        <v>0.48500013351440402</v>
+        <v>2.0199999809265101</v>
       </c>
       <c r="J38">
-        <v>0.64099979400634699</v>
+        <v>1.50999999046325</v>
       </c>
       <c r="K38">
-        <v>0.49499988555908198</v>
+        <v>1.47699999809265</v>
       </c>
       <c r="L38">
-        <v>0.49799990653991699</v>
+        <v>1.46900010108947</v>
       </c>
       <c r="M38">
-        <v>0.700999975204467</v>
+        <v>1.4939999580383301</v>
       </c>
       <c r="N38">
-        <v>0.47900009155273399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>1.92499995231628</v>
+      </c>
+      <c r="R38" t="s">
+        <v>38</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0.65699982643127397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1696,37 +1957,46 @@
         <v>0.558000087738037</v>
       </c>
       <c r="E39">
-        <v>0.11599993705749501</v>
+        <v>0.81900000572204501</v>
       </c>
       <c r="F39">
-        <v>9.4000101089477497E-2</v>
+        <v>0.89699983596801702</v>
       </c>
       <c r="G39">
-        <v>0.125</v>
+        <v>0.80799984931945801</v>
       </c>
       <c r="H39">
-        <v>0.125</v>
+        <v>1.04900002479553</v>
       </c>
       <c r="I39">
-        <v>0.10899996757507301</v>
+        <v>1.0829999446868801</v>
       </c>
       <c r="J39">
-        <v>0.125</v>
+        <v>1.0460000038146899</v>
       </c>
       <c r="K39">
-        <v>0.111000061035156</v>
+        <v>0.87100005149841297</v>
       </c>
       <c r="L39">
-        <v>0.10899996757507301</v>
+        <v>0.80599999427795399</v>
       </c>
       <c r="M39">
-        <v>0.10899996757507301</v>
+        <v>1.09899997711181</v>
       </c>
       <c r="N39">
-        <v>9.3999862670898396E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>0.79299998283386197</v>
+      </c>
+      <c r="R39" t="s">
+        <v>39</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0.61400008201599099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1737,37 +2007,46 @@
         <v>0.18600010871887199</v>
       </c>
       <c r="E40">
-        <v>0.35300016403198198</v>
+        <v>0.14700007438659601</v>
       </c>
       <c r="F40">
-        <v>0.34400010108947698</v>
+        <v>0.12800002098083399</v>
       </c>
       <c r="G40">
-        <v>0.56199979782104403</v>
+        <v>0.13700008392333901</v>
       </c>
       <c r="H40">
-        <v>0.34500002861022899</v>
+        <v>0.14100003242492601</v>
       </c>
       <c r="I40">
-        <v>0.51600003242492598</v>
+        <v>0.125</v>
       </c>
       <c r="J40">
-        <v>0.34500002861022899</v>
+        <v>0.17700004577636699</v>
       </c>
       <c r="K40">
-        <v>0.34300017356872498</v>
+        <v>0.13100004196166901</v>
       </c>
       <c r="L40">
-        <v>0.50200009346008301</v>
+        <v>0.132999897003173</v>
       </c>
       <c r="M40">
-        <v>0.36199998855590798</v>
+        <v>0.18000006675720201</v>
       </c>
       <c r="N40">
-        <v>0.355000019073486</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>0.12700009346008301</v>
+      </c>
+      <c r="R40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0.116999864578247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1778,37 +2057,46 @@
         <v>2.1119999885559002</v>
       </c>
       <c r="E41">
-        <v>0.39199995994567799</v>
+        <v>0.47399997711181602</v>
       </c>
       <c r="F41">
-        <v>0.41100001335143999</v>
+        <v>0.46799993515014598</v>
       </c>
       <c r="G41">
-        <v>0.41000008583068798</v>
+        <v>0.49399995803833002</v>
       </c>
       <c r="H41">
-        <v>0.39700007438659601</v>
+        <v>0.64400005340576105</v>
       </c>
       <c r="I41">
-        <v>0.55399990081787098</v>
+        <v>0.48500013351440402</v>
       </c>
       <c r="J41">
-        <v>0.39899992942809998</v>
+        <v>0.64099979400634699</v>
       </c>
       <c r="K41">
-        <v>0.396000146865844</v>
+        <v>0.49499988555908198</v>
       </c>
       <c r="L41">
-        <v>0.59000015258788996</v>
+        <v>0.49799990653991699</v>
       </c>
       <c r="M41">
-        <v>0.41100001335143999</v>
+        <v>0.700999975204467</v>
       </c>
       <c r="N41">
-        <v>0.39300012588500899</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>0.47900009155273399</v>
+      </c>
+      <c r="R41" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" t="s">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1819,37 +2107,46 @@
         <v>0.89699983596801702</v>
       </c>
       <c r="E42">
-        <v>0.34400010108947698</v>
+        <v>0.11599993705749501</v>
       </c>
       <c r="F42">
-        <v>0.46700000762939398</v>
+        <v>9.4000101089477497E-2</v>
       </c>
       <c r="G42">
-        <v>0.36699986457824701</v>
+        <v>0.125</v>
       </c>
       <c r="H42">
-        <v>0.36000013351440402</v>
+        <v>0.125</v>
       </c>
       <c r="I42">
-        <v>0.40700006484985302</v>
+        <v>0.10899996757507301</v>
       </c>
       <c r="J42">
-        <v>0.36300015449523898</v>
+        <v>0.125</v>
       </c>
       <c r="K42">
-        <v>0.48699998855590798</v>
+        <v>0.111000061035156</v>
       </c>
       <c r="L42">
-        <v>0.375</v>
+        <v>0.10899996757507301</v>
       </c>
       <c r="M42">
-        <v>0.36800003051757801</v>
+        <v>0.10899996757507301</v>
       </c>
       <c r="N42">
-        <v>0.35999989509582497</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>9.3999862670898396E-2</v>
+      </c>
+      <c r="R42" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42">
+        <v>7</v>
+      </c>
+      <c r="T42">
+        <v>9.4000101089477497E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1860,37 +2157,46 @@
         <v>0.12800002098083399</v>
       </c>
       <c r="E43">
-        <v>0.404000043869018</v>
+        <v>0.35300016403198198</v>
       </c>
       <c r="F43">
-        <v>0.50399994850158603</v>
+        <v>0.34400010108947698</v>
       </c>
       <c r="G43">
-        <v>0.394000053405761</v>
+        <v>0.56199979782104403</v>
       </c>
       <c r="H43">
-        <v>0.40399980545043901</v>
+        <v>0.34500002861022899</v>
       </c>
       <c r="I43">
-        <v>0.40899991989135698</v>
+        <v>0.51600003242492598</v>
       </c>
       <c r="J43">
-        <v>0.51800012588500899</v>
+        <v>0.34500002861022899</v>
       </c>
       <c r="K43">
-        <v>0.511000156402587</v>
+        <v>0.34300017356872498</v>
       </c>
       <c r="L43">
-        <v>0.39499998092651301</v>
+        <v>0.50200009346008301</v>
       </c>
       <c r="M43">
-        <v>0.39000010490417403</v>
+        <v>0.36199998855590798</v>
       </c>
       <c r="N43">
-        <v>0.37999987602233798</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>0.355000019073486</v>
+      </c>
+      <c r="R43" t="s">
+        <v>37</v>
+      </c>
+      <c r="S43">
+        <v>71</v>
+      </c>
+      <c r="T43">
+        <v>0.950999975204467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1901,37 +2207,46 @@
         <v>0.46799993515014598</v>
       </c>
       <c r="E44">
-        <v>0.125</v>
+        <v>0.39199995994567799</v>
       </c>
       <c r="F44">
-        <v>0.15700006484985299</v>
+        <v>0.41100001335143999</v>
       </c>
       <c r="G44">
-        <v>0.134999990463256</v>
+        <v>0.41000008583068798</v>
       </c>
       <c r="H44">
-        <v>0.14199995994567799</v>
+        <v>0.39700007438659601</v>
       </c>
       <c r="I44">
-        <v>0.13099980354308999</v>
+        <v>0.55399990081787098</v>
       </c>
       <c r="J44">
-        <v>0.171999931335449</v>
+        <v>0.39899992942809998</v>
       </c>
       <c r="K44">
-        <v>0.187000036239624</v>
+        <v>0.396000146865844</v>
       </c>
       <c r="L44">
-        <v>0.12599992752075101</v>
+        <v>0.59000015258788996</v>
       </c>
       <c r="M44">
-        <v>0.13999986648559501</v>
+        <v>0.41100001335143999</v>
       </c>
       <c r="N44">
-        <v>0.13800001144409099</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>0.39300012588500899</v>
+      </c>
+      <c r="R44" t="s">
+        <v>38</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0.97399997711181596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1942,37 +2257,46 @@
         <v>9.4000101089477497E-2</v>
       </c>
       <c r="E45">
-        <v>1.4709999561309799</v>
+        <v>0.34400010108947698</v>
       </c>
       <c r="F45">
-        <v>2.0430002212524401</v>
+        <v>0.46700000762939398</v>
       </c>
       <c r="G45">
-        <v>1.6119999885559</v>
+        <v>0.36699986457824701</v>
       </c>
       <c r="H45">
-        <v>1.46000003814697</v>
+        <v>0.36000013351440402</v>
       </c>
       <c r="I45">
-        <v>1.48200011253356</v>
+        <v>0.40700006484985302</v>
       </c>
       <c r="J45">
-        <v>1.99499988555908</v>
+        <v>0.36300015449523898</v>
       </c>
       <c r="K45">
-        <v>2.09800004959106</v>
+        <v>0.48699998855590798</v>
       </c>
       <c r="L45">
-        <v>1.48600006103515</v>
+        <v>0.375</v>
       </c>
       <c r="M45">
-        <v>1.4580001831054601</v>
+        <v>0.36800003051757801</v>
       </c>
       <c r="N45">
-        <v>2.0150001049041699</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>0.35999989509582497</v>
+      </c>
+      <c r="R45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0.799000024795532</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1983,37 +2307,46 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>0.77999997138976995</v>
+        <v>0.404000043869018</v>
       </c>
       <c r="F46">
-        <v>1.08399987220764</v>
+        <v>0.50399994850158603</v>
       </c>
       <c r="G46">
-        <v>0.787999868392944</v>
+        <v>0.394000053405761</v>
       </c>
       <c r="H46">
-        <v>0.79500007629394498</v>
+        <v>0.40399980545043901</v>
       </c>
       <c r="I46">
-        <v>0.79799985885620095</v>
+        <v>0.40899991989135698</v>
       </c>
       <c r="J46">
-        <v>1.12000012397766</v>
+        <v>0.51800012588500899</v>
       </c>
       <c r="K46">
-        <v>1.1099998950958201</v>
+        <v>0.511000156402587</v>
       </c>
       <c r="L46">
-        <v>0.86000013351440396</v>
+        <v>0.39499998092651301</v>
       </c>
       <c r="M46">
-        <v>0.81399989128112704</v>
+        <v>0.39000010490417403</v>
       </c>
       <c r="N46">
-        <v>1.06799983978271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>0.37999987602233798</v>
+      </c>
+      <c r="R46" t="s">
+        <v>40</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0.105999946594238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2024,37 +2357,46 @@
         <v>0.34400010108947698</v>
       </c>
       <c r="E47">
-        <v>0.12999987602233801</v>
+        <v>0.125</v>
       </c>
       <c r="F47">
-        <v>0.125</v>
+        <v>0.15700006484985299</v>
       </c>
       <c r="G47">
-        <v>0.125</v>
+        <v>0.134999990463256</v>
       </c>
       <c r="H47">
-        <v>0.14100003242492601</v>
+        <v>0.14199995994567799</v>
       </c>
       <c r="I47">
-        <v>0.109999895095825</v>
+        <v>0.13099980354308999</v>
       </c>
       <c r="J47">
-        <v>0.15599989891052199</v>
+        <v>0.171999931335449</v>
       </c>
       <c r="K47">
-        <v>0.125</v>
+        <v>0.187000036239624</v>
       </c>
       <c r="L47">
-        <v>0.12700009346008301</v>
+        <v>0.12599992752075101</v>
       </c>
       <c r="M47">
-        <v>0.125</v>
+        <v>0.13999986648559501</v>
       </c>
       <c r="N47">
-        <v>0.17000007629394501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>0.13800001144409099</v>
+      </c>
+      <c r="R47" t="s">
+        <v>1</v>
+      </c>
+      <c r="S47" t="s">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2065,37 +2407,46 @@
         <v>0.41100001335143999</v>
       </c>
       <c r="E48">
-        <v>0.48299980163574202</v>
+        <v>1.4709999561309799</v>
       </c>
       <c r="F48">
-        <v>0.47799992561340299</v>
+        <v>2.0430002212524401</v>
       </c>
       <c r="G48">
-        <v>0.48399996757507302</v>
+        <v>1.6119999885559</v>
       </c>
       <c r="H48">
-        <v>0.50699996948242099</v>
+        <v>1.46000003814697</v>
       </c>
       <c r="I48">
-        <v>0.47599983215331998</v>
+        <v>1.48200011253356</v>
       </c>
       <c r="J48">
-        <v>0.50099992752075195</v>
+        <v>1.99499988555908</v>
       </c>
       <c r="K48">
-        <v>0.50699996948242099</v>
+        <v>2.09800004959106</v>
       </c>
       <c r="L48">
-        <v>0.49699997901916498</v>
+        <v>1.48600006103515</v>
       </c>
       <c r="M48">
-        <v>0.50600004196166903</v>
+        <v>1.4580001831054601</v>
       </c>
       <c r="N48">
-        <v>0.67000007629394498</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>2.0150001049041699</v>
+      </c>
+      <c r="R48" t="s">
+        <v>36</v>
+      </c>
+      <c r="S48">
+        <v>8</v>
+      </c>
+      <c r="T48">
+        <v>6.9000005722045898E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2106,37 +2457,46 @@
         <v>0.46700000762939398</v>
       </c>
       <c r="E49">
-        <v>0.10899996757507301</v>
+        <v>0.77999997138976995</v>
       </c>
       <c r="F49">
-        <v>0.109999895095825</v>
+        <v>1.08399987220764</v>
       </c>
       <c r="G49">
-        <v>0.109999895095825</v>
+        <v>0.787999868392944</v>
       </c>
       <c r="H49">
-        <v>9.4000101089477497E-2</v>
+        <v>0.79500007629394498</v>
       </c>
       <c r="I49">
-        <v>9.4000101089477497E-2</v>
+        <v>0.79799985885620095</v>
       </c>
       <c r="J49">
-        <v>0.10899996757507301</v>
+        <v>1.12000012397766</v>
       </c>
       <c r="K49">
-        <v>0.11000013351440401</v>
+        <v>1.1099998950958201</v>
       </c>
       <c r="L49">
-        <v>0.10899996757507301</v>
+        <v>0.86000013351440396</v>
       </c>
       <c r="M49">
-        <v>0.109999895095825</v>
+        <v>0.81399989128112704</v>
       </c>
       <c r="N49">
-        <v>9.5000028610229395E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>1.06799983978271</v>
+      </c>
+      <c r="R49" t="s">
+        <v>37</v>
+      </c>
+      <c r="S49">
+        <v>76</v>
+      </c>
+      <c r="T49">
+        <v>0.61000013351440396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2147,37 +2507,46 @@
         <v>0.50399994850158603</v>
       </c>
       <c r="E50">
-        <v>0.36199998855590798</v>
+        <v>0.12999987602233801</v>
       </c>
       <c r="F50">
-        <v>0.35800004005432101</v>
+        <v>0.125</v>
       </c>
       <c r="G50">
-        <v>0.35999989509582497</v>
+        <v>0.125</v>
       </c>
       <c r="H50">
-        <v>0.46499991416931102</v>
+        <v>0.14100003242492601</v>
       </c>
       <c r="I50">
-        <v>0.35299992561340299</v>
+        <v>0.109999895095825</v>
       </c>
       <c r="J50">
-        <v>0.45399999618530201</v>
+        <v>0.15599989891052199</v>
       </c>
       <c r="K50">
-        <v>0.345999956130981</v>
+        <v>0.125</v>
       </c>
       <c r="L50">
-        <v>0.36300015449523898</v>
+        <v>0.12700009346008301</v>
       </c>
       <c r="M50">
-        <v>0.47300004959106401</v>
+        <v>0.125</v>
       </c>
       <c r="N50">
-        <v>0.36400008201599099</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>0.17000007629394501</v>
+      </c>
+      <c r="R50" t="s">
+        <v>38</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0.61699986457824696</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2188,37 +2557,46 @@
         <v>0.15700006484985299</v>
       </c>
       <c r="E51">
-        <v>0.37599992752075101</v>
+        <v>0.48299980163574202</v>
       </c>
       <c r="F51">
-        <v>0.40799999237060502</v>
+        <v>0.47799992561340299</v>
       </c>
       <c r="G51">
-        <v>0.54600000381469704</v>
+        <v>0.48399996757507302</v>
       </c>
       <c r="H51">
-        <v>0.53500008583068803</v>
+        <v>0.50699996948242099</v>
       </c>
       <c r="I51">
-        <v>0.40799999237060502</v>
+        <v>0.47599983215331998</v>
       </c>
       <c r="J51">
-        <v>0.52699995040893499</v>
+        <v>0.50099992752075195</v>
       </c>
       <c r="K51">
-        <v>0.395000219345092</v>
+        <v>0.50699996948242099</v>
       </c>
       <c r="L51">
-        <v>0.39300012588500899</v>
+        <v>0.49699997901916498</v>
       </c>
       <c r="M51">
-        <v>0.52899980545043901</v>
+        <v>0.50600004196166903</v>
       </c>
       <c r="N51">
-        <v>0.39700007438659601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>0.67000007629394498</v>
+      </c>
+      <c r="R51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0.59299993515014604</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2229,37 +2607,46 @@
         <v>2.0430002212524401</v>
       </c>
       <c r="E52">
-        <v>0.355999946594238</v>
+        <v>0.10899996757507301</v>
       </c>
       <c r="F52">
-        <v>0.37800002098083402</v>
+        <v>0.109999895095825</v>
       </c>
       <c r="G52">
-        <v>0.450999975204467</v>
+        <v>0.109999895095825</v>
       </c>
       <c r="H52">
-        <v>0.363999843597412</v>
+        <v>9.4000101089477497E-2</v>
       </c>
       <c r="I52">
-        <v>0.48300004005432101</v>
+        <v>9.4000101089477497E-2</v>
       </c>
       <c r="J52">
-        <v>0.470999956130981</v>
+        <v>0.10899996757507301</v>
       </c>
       <c r="K52">
-        <v>0.34399986267089799</v>
+        <v>0.11000013351440401</v>
       </c>
       <c r="L52">
-        <v>0.50199985504150302</v>
+        <v>0.10899996757507301</v>
       </c>
       <c r="M52">
-        <v>0.34699988365173301</v>
+        <v>0.109999895095825</v>
       </c>
       <c r="N52">
-        <v>0.36199998855590798</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>9.5000028610229395E-2</v>
+      </c>
+      <c r="R52" t="s">
+        <v>40</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0.11000013351440401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2270,37 +2657,46 @@
         <v>1.08399987220764</v>
       </c>
       <c r="E53">
-        <v>0.37900018692016602</v>
+        <v>0.36199998855590798</v>
       </c>
       <c r="F53">
-        <v>0.37699985504150302</v>
+        <v>0.35800004005432101</v>
       </c>
       <c r="G53">
-        <v>0.50900006294250399</v>
+        <v>0.35999989509582497</v>
       </c>
       <c r="H53">
-        <v>0.382999897003173</v>
+        <v>0.46499991416931102</v>
       </c>
       <c r="I53">
-        <v>0.51999998092651301</v>
+        <v>0.35299992561340299</v>
       </c>
       <c r="J53">
-        <v>0.59800004959106401</v>
+        <v>0.45399999618530201</v>
       </c>
       <c r="K53">
-        <v>0.39800000190734802</v>
+        <v>0.345999956130981</v>
       </c>
       <c r="L53">
-        <v>0.50399994850158603</v>
+        <v>0.36300015449523898</v>
       </c>
       <c r="M53">
-        <v>0.39899992942809998</v>
+        <v>0.47300004959106401</v>
       </c>
       <c r="N53">
-        <v>0.41600012779235801</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>0.36400008201599099</v>
+      </c>
+      <c r="R53" t="s">
+        <v>1</v>
+      </c>
+      <c r="S53" t="s">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2311,37 +2707,46 @@
         <v>0.125</v>
       </c>
       <c r="E54">
-        <v>0.115000009536743</v>
+        <v>0.37599992752075101</v>
       </c>
       <c r="F54">
-        <v>0.12699985504150299</v>
+        <v>0.40799999237060502</v>
       </c>
       <c r="G54">
-        <v>0.14100003242492601</v>
+        <v>0.54600000381469704</v>
       </c>
       <c r="H54">
-        <v>0.13599991798400801</v>
+        <v>0.53500008583068803</v>
       </c>
       <c r="I54">
-        <v>0.171999931335449</v>
+        <v>0.40799999237060502</v>
       </c>
       <c r="J54">
-        <v>0.177999973297119</v>
+        <v>0.52699995040893499</v>
       </c>
       <c r="K54">
-        <v>0.12599992752075101</v>
+        <v>0.395000219345092</v>
       </c>
       <c r="L54">
-        <v>0.164000034332275</v>
+        <v>0.39300012588500899</v>
       </c>
       <c r="M54">
-        <v>0.134999990463256</v>
+        <v>0.52899980545043901</v>
       </c>
       <c r="N54">
-        <v>0.12400007247924801</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>0.39700007438659601</v>
+      </c>
+      <c r="R54" t="s">
+        <v>36</v>
+      </c>
+      <c r="S54">
+        <v>10</v>
+      </c>
+      <c r="T54">
+        <v>9.8000049591064398E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2352,37 +2757,46 @@
         <v>0.47799992561340299</v>
       </c>
       <c r="E55">
-        <v>1.46800017356872</v>
+        <v>0.355999946594238</v>
       </c>
       <c r="F55">
-        <v>1.51799988746643</v>
+        <v>0.37800002098083402</v>
       </c>
       <c r="G55">
-        <v>1.9079999923705999</v>
+        <v>0.450999975204467</v>
       </c>
       <c r="H55">
-        <v>1.4840002059936499</v>
+        <v>0.363999843597412</v>
       </c>
       <c r="I55">
-        <v>1.9490001201629601</v>
+        <v>0.48300004005432101</v>
       </c>
       <c r="J55">
-        <v>1.4810001850128101</v>
+        <v>0.470999956130981</v>
       </c>
       <c r="K55">
-        <v>1.4629998207092201</v>
+        <v>0.34399986267089799</v>
       </c>
       <c r="L55">
-        <v>2.0190000534057599</v>
+        <v>0.50199985504150302</v>
       </c>
       <c r="M55">
-        <v>1.48300004005432</v>
+        <v>0.34699988365173301</v>
       </c>
       <c r="N55">
-        <v>1.4750001430511399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>0.36199998855590798</v>
+      </c>
+      <c r="R55" t="s">
+        <v>37</v>
+      </c>
+      <c r="S55">
+        <v>79</v>
+      </c>
+      <c r="T55">
+        <v>0.59699988365173295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2393,37 +2807,46 @@
         <v>0.109999895095825</v>
       </c>
       <c r="E56">
-        <v>0.78699994087219205</v>
+        <v>0.37900018692016602</v>
       </c>
       <c r="F56">
-        <v>0.80700016021728505</v>
+        <v>0.37699985504150302</v>
       </c>
       <c r="G56">
-        <v>0.78900003433227495</v>
+        <v>0.50900006294250399</v>
       </c>
       <c r="H56">
-        <v>0.81299996376037598</v>
+        <v>0.382999897003173</v>
       </c>
       <c r="I56">
-        <v>1.0610001087188701</v>
+        <v>0.51999998092651301</v>
       </c>
       <c r="J56">
-        <v>0.799000024795532</v>
+        <v>0.59800004959106401</v>
       </c>
       <c r="K56">
-        <v>1.07699990272521</v>
+        <v>0.39800000190734802</v>
       </c>
       <c r="L56">
-        <v>1.08000016212463</v>
+        <v>0.50399994850158603</v>
       </c>
       <c r="M56">
-        <v>0.86500000953674305</v>
+        <v>0.39899992942809998</v>
       </c>
       <c r="N56">
-        <v>0.79800009727478005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>0.41600012779235801</v>
+      </c>
+      <c r="R56" t="s">
+        <v>38</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0.61400008201599099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -2434,37 +2857,46 @@
         <v>3</v>
       </c>
       <c r="E57">
+        <v>0.115000009536743</v>
+      </c>
+      <c r="F57">
+        <v>0.12699985504150299</v>
+      </c>
+      <c r="G57">
+        <v>0.14100003242492601</v>
+      </c>
+      <c r="H57">
+        <v>0.13599991798400801</v>
+      </c>
+      <c r="I57">
+        <v>0.171999931335449</v>
+      </c>
+      <c r="J57">
+        <v>0.177999973297119</v>
+      </c>
+      <c r="K57">
+        <v>0.12599992752075101</v>
+      </c>
+      <c r="L57">
+        <v>0.164000034332275</v>
+      </c>
+      <c r="M57">
         <v>0.134999990463256</v>
       </c>
-      <c r="F57">
-        <v>0.17999982833862299</v>
-      </c>
-      <c r="G57">
-        <v>0.125</v>
-      </c>
-      <c r="H57">
-        <v>0.12700009346008301</v>
-      </c>
-      <c r="I57">
-        <v>0.125</v>
-      </c>
-      <c r="J57">
-        <v>0.13999986648559501</v>
-      </c>
-      <c r="K57">
-        <v>0.183000087738037</v>
-      </c>
-      <c r="L57">
-        <v>0.14100003242492601</v>
-      </c>
-      <c r="M57">
-        <v>0.13700008392333901</v>
-      </c>
       <c r="N57">
-        <v>0.11599993705749501</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>0.12400007247924801</v>
+      </c>
+      <c r="R57" t="s">
+        <v>39</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0.58699989318847601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -2475,37 +2907,46 @@
         <v>0.35800004005432101</v>
       </c>
       <c r="E58">
-        <v>0.48499989509582497</v>
+        <v>1.46800017356872</v>
       </c>
       <c r="F58">
-        <v>0.65499997138976995</v>
+        <v>1.51799988746643</v>
       </c>
       <c r="G58">
-        <v>0.48799991607665999</v>
+        <v>1.9079999923705999</v>
       </c>
       <c r="H58">
-        <v>0.48599982261657698</v>
+        <v>1.4840002059936499</v>
       </c>
       <c r="I58">
-        <v>0.48400020599365201</v>
+        <v>1.9490001201629601</v>
       </c>
       <c r="J58">
-        <v>0.60099983215331998</v>
+        <v>1.4810001850128101</v>
       </c>
       <c r="K58">
-        <v>0.654000043869018</v>
+        <v>1.4629998207092201</v>
       </c>
       <c r="L58">
-        <v>0.48699998855590798</v>
+        <v>2.0190000534057599</v>
       </c>
       <c r="M58">
-        <v>0.48600006103515597</v>
+        <v>1.48300004005432</v>
       </c>
       <c r="N58">
-        <v>0.48399996757507302</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>1.4750001430511399</v>
+      </c>
+      <c r="R58" t="s">
+        <v>40</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0.111000061035156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2516,37 +2957,46 @@
         <v>0.40799999237060502</v>
       </c>
       <c r="E59">
-        <v>0.105999946594238</v>
+        <v>0.78699994087219205</v>
       </c>
       <c r="F59">
-        <v>0.10899996757507301</v>
+        <v>0.80700016021728505</v>
       </c>
       <c r="G59">
-        <v>0.144000053405761</v>
+        <v>0.78900003433227495</v>
       </c>
       <c r="H59">
-        <v>0.11000013351440401</v>
+        <v>0.81299996376037598</v>
       </c>
       <c r="I59">
-        <v>9.4000101089477497E-2</v>
+        <v>1.0610001087188701</v>
       </c>
       <c r="J59">
-        <v>0.10899996757507301</v>
+        <v>0.799000024795532</v>
       </c>
       <c r="K59">
-        <v>0.125</v>
+        <v>1.07699990272521</v>
       </c>
       <c r="L59">
-        <v>0.10899996757507301</v>
+        <v>1.08000016212463</v>
       </c>
       <c r="M59">
-        <v>0.10199999809265101</v>
+        <v>0.86500000953674305</v>
       </c>
       <c r="N59">
-        <v>0.10899996757507301</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>0.79800009727478005</v>
+      </c>
+      <c r="R59" t="s">
+        <v>1</v>
+      </c>
+      <c r="S59" t="s">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2556,8 +3006,47 @@
       <c r="C60">
         <v>0.37800002098083402</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="E60">
+        <v>0.134999990463256</v>
+      </c>
+      <c r="F60">
+        <v>0.17999982833862299</v>
+      </c>
+      <c r="G60">
+        <v>0.125</v>
+      </c>
+      <c r="H60">
+        <v>0.12700009346008301</v>
+      </c>
+      <c r="I60">
+        <v>0.125</v>
+      </c>
+      <c r="J60">
+        <v>0.13999986648559501</v>
+      </c>
+      <c r="K60">
+        <v>0.183000087738037</v>
+      </c>
+      <c r="L60">
+        <v>0.14100003242492601</v>
+      </c>
+      <c r="M60">
+        <v>0.13700008392333901</v>
+      </c>
+      <c r="N60">
+        <v>0.11599993705749501</v>
+      </c>
+      <c r="R60" t="s">
+        <v>36</v>
+      </c>
+      <c r="S60">
+        <v>11</v>
+      </c>
+      <c r="T60">
+        <v>6.9999933242797796E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2567,8 +3056,47 @@
       <c r="C61">
         <v>0.37699985504150302</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="E61">
+        <v>0.48499989509582497</v>
+      </c>
+      <c r="F61">
+        <v>0.65499997138976995</v>
+      </c>
+      <c r="G61">
+        <v>0.48799991607665999</v>
+      </c>
+      <c r="H61">
+        <v>0.48599982261657698</v>
+      </c>
+      <c r="I61">
+        <v>0.48400020599365201</v>
+      </c>
+      <c r="J61">
+        <v>0.60099983215331998</v>
+      </c>
+      <c r="K61">
+        <v>0.654000043869018</v>
+      </c>
+      <c r="L61">
+        <v>0.48699998855590798</v>
+      </c>
+      <c r="M61">
+        <v>0.48600006103515597</v>
+      </c>
+      <c r="N61">
+        <v>0.48399996757507302</v>
+      </c>
+      <c r="R61" t="s">
+        <v>37</v>
+      </c>
+      <c r="S61">
+        <v>83</v>
+      </c>
+      <c r="T61">
+        <v>0.61299991607666005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2578,8 +3106,47 @@
       <c r="C62">
         <v>0.12699985504150299</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="E62">
+        <v>0.105999946594238</v>
+      </c>
+      <c r="F62">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="G62">
+        <v>0.144000053405761</v>
+      </c>
+      <c r="H62">
+        <v>0.11000013351440401</v>
+      </c>
+      <c r="I62">
+        <v>9.4000101089477497E-2</v>
+      </c>
+      <c r="J62">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="K62">
+        <v>0.125</v>
+      </c>
+      <c r="L62">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="M62">
+        <v>0.10199999809265101</v>
+      </c>
+      <c r="N62">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="R62" t="s">
+        <v>38</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0.77800011634826605</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2589,8 +3156,17 @@
       <c r="C63">
         <v>1.51799988746643</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="R63" t="s">
+        <v>39</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0.61299991607666005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2600,8 +3176,17 @@
       <c r="C64">
         <v>0.80700016021728505</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="R64" t="s">
+        <v>40</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0.15599989891052199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2611,8 +3196,17 @@
       <c r="C65">
         <v>0.17999982833862299</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="R65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S65" t="s">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -2652,8 +3246,17 @@
       <c r="N66" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="R66" t="s">
+        <v>36</v>
+      </c>
+      <c r="S66">
+        <v>13</v>
+      </c>
+      <c r="T66">
+        <v>7.8000068664550698E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -2693,8 +3296,17 @@
       <c r="N67">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="R67" t="s">
+        <v>37</v>
+      </c>
+      <c r="S67">
+        <v>86</v>
+      </c>
+      <c r="T67">
+        <v>0.59999990463256803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2734,8 +3346,17 @@
       <c r="N68">
         <v>0.5222666740417472</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="R68" t="s">
+        <v>38</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>0.81700015068054199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2745,8 +3366,17 @@
       <c r="C69">
         <v>0.354999780654907</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="R69" t="s">
+        <v>39</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>0.595999956130981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2756,8 +3386,17 @@
       <c r="C70">
         <v>0.40100002288818298</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="R70" t="s">
+        <v>40</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>9.3999862670898396E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2767,8 +3406,17 @@
       <c r="C71">
         <v>0.37700009346008301</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="R71" t="s">
+        <v>1</v>
+      </c>
+      <c r="S71" t="s">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2778,8 +3426,53 @@
       <c r="C72">
         <v>0.42599987983703602</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M72" t="s">
+        <v>34</v>
+      </c>
+      <c r="N72" t="s">
+        <v>35</v>
+      </c>
+      <c r="O72" t="s">
+        <v>46</v>
+      </c>
+      <c r="P72" t="s">
+        <v>47</v>
+      </c>
+      <c r="R72" t="s">
+        <v>36</v>
+      </c>
+      <c r="S72">
+        <v>18</v>
+      </c>
+      <c r="T72">
+        <v>0.11000013351440401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2789,8 +3482,53 @@
       <c r="C73">
         <v>0.123000144958496</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="E73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O73" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="P73" s="2">
+        <v>1</v>
+      </c>
+      <c r="R73" t="s">
+        <v>37</v>
+      </c>
+      <c r="S73">
+        <v>88</v>
+      </c>
+      <c r="T73">
+        <v>0.95399999618530196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2800,8 +3538,53 @@
       <c r="C74">
         <v>1.50999999046325</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="E74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74">
+        <v>100</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74">
+        <v>100</v>
+      </c>
+      <c r="K74">
+        <v>100</v>
+      </c>
+      <c r="L74">
+        <v>100</v>
+      </c>
+      <c r="M74">
+        <v>100</v>
+      </c>
+      <c r="N74">
+        <v>100</v>
+      </c>
+      <c r="O74">
+        <v>100</v>
+      </c>
+      <c r="P74">
+        <v>100</v>
+      </c>
+      <c r="R74" t="s">
+        <v>38</v>
+      </c>
+      <c r="S74">
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <v>0.64100003242492598</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2811,8 +3594,53 @@
       <c r="C75">
         <v>0.80799984931945801</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="E75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75">
+        <v>38</v>
+      </c>
+      <c r="G75">
+        <v>44</v>
+      </c>
+      <c r="H75">
+        <v>50</v>
+      </c>
+      <c r="I75">
+        <v>56</v>
+      </c>
+      <c r="J75">
+        <v>60</v>
+      </c>
+      <c r="K75">
+        <v>65</v>
+      </c>
+      <c r="L75">
+        <v>70</v>
+      </c>
+      <c r="M75">
+        <v>74</v>
+      </c>
+      <c r="N75">
+        <v>81</v>
+      </c>
+      <c r="O75">
+        <v>88</v>
+      </c>
+      <c r="P75">
+        <v>100</v>
+      </c>
+      <c r="R75" t="s">
+        <v>39</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>0.60599994659423795</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -2822,8 +3650,53 @@
       <c r="C76">
         <v>0.13700008392333901</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="E76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76">
+        <v>56</v>
+      </c>
+      <c r="G76">
+        <v>62</v>
+      </c>
+      <c r="H76">
+        <v>67</v>
+      </c>
+      <c r="I76">
+        <v>72</v>
+      </c>
+      <c r="J76">
+        <v>76</v>
+      </c>
+      <c r="K76">
+        <v>80</v>
+      </c>
+      <c r="L76">
+        <v>83</v>
+      </c>
+      <c r="M76">
+        <v>86</v>
+      </c>
+      <c r="N76">
+        <v>89</v>
+      </c>
+      <c r="O76">
+        <v>93</v>
+      </c>
+      <c r="P76">
+        <v>100</v>
+      </c>
+      <c r="R76" t="s">
+        <v>40</v>
+      </c>
+      <c r="S76">
+        <v>5</v>
+      </c>
+      <c r="T76">
+        <v>0.11199998855590799</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2833,8 +3706,53 @@
       <c r="C77">
         <v>0.49399995803833002</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="E77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77">
+        <v>90</v>
+      </c>
+      <c r="G77">
+        <v>91</v>
+      </c>
+      <c r="H77">
+        <v>92</v>
+      </c>
+      <c r="I77">
+        <v>93</v>
+      </c>
+      <c r="J77">
+        <v>93</v>
+      </c>
+      <c r="K77">
+        <v>94</v>
+      </c>
+      <c r="L77">
+        <v>95</v>
+      </c>
+      <c r="M77">
+        <v>95</v>
+      </c>
+      <c r="N77">
+        <v>96</v>
+      </c>
+      <c r="O77">
+        <v>97</v>
+      </c>
+      <c r="P77">
+        <v>100</v>
+      </c>
+      <c r="R77" t="s">
+        <v>1</v>
+      </c>
+      <c r="S77" t="s">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -2844,8 +3762,53 @@
       <c r="C78">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="E78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>6</v>
+      </c>
+      <c r="H78">
+        <v>7</v>
+      </c>
+      <c r="I78">
+        <v>8</v>
+      </c>
+      <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="K78">
+        <v>11</v>
+      </c>
+      <c r="L78">
+        <v>13</v>
+      </c>
+      <c r="M78">
+        <v>18</v>
+      </c>
+      <c r="N78">
+        <v>28</v>
+      </c>
+      <c r="O78">
+        <v>50</v>
+      </c>
+      <c r="P78">
+        <v>100</v>
+      </c>
+      <c r="R78" t="s">
+        <v>36</v>
+      </c>
+      <c r="S78">
+        <v>28</v>
+      </c>
+      <c r="T78">
+        <v>6.8000078201293904E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -2855,8 +3818,53 @@
       <c r="C79" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="E79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79">
+        <v>60</v>
+      </c>
+      <c r="G79">
+        <v>66</v>
+      </c>
+      <c r="H79">
+        <v>71</v>
+      </c>
+      <c r="I79">
+        <v>76</v>
+      </c>
+      <c r="J79">
+        <v>79</v>
+      </c>
+      <c r="K79">
+        <v>83</v>
+      </c>
+      <c r="L79">
+        <v>86</v>
+      </c>
+      <c r="M79">
+        <v>88</v>
+      </c>
+      <c r="N79">
+        <v>91</v>
+      </c>
+      <c r="O79">
+        <v>95</v>
+      </c>
+      <c r="P79">
+        <v>100</v>
+      </c>
+      <c r="R79" t="s">
+        <v>37</v>
+      </c>
+      <c r="S79">
+        <v>91</v>
+      </c>
+      <c r="T79">
+        <v>0.60199999809265103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2866,8 +3874,53 @@
       <c r="C80">
         <v>0.56199979782104403</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="E80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>12</v>
+      </c>
+      <c r="O80">
+        <v>37</v>
+      </c>
+      <c r="P80">
+        <v>100</v>
+      </c>
+      <c r="R80" t="s">
+        <v>38</v>
+      </c>
+      <c r="S80">
+        <v>12</v>
+      </c>
+      <c r="T80">
+        <v>0.60899996757507302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2877,8 +3930,53 @@
       <c r="C81">
         <v>0.41000008583068798</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="E81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81">
+        <v>12</v>
+      </c>
+      <c r="O81">
+        <v>36</v>
+      </c>
+      <c r="P81">
+        <v>100</v>
+      </c>
+      <c r="R81" t="s">
+        <v>39</v>
+      </c>
+      <c r="S81">
+        <v>12</v>
+      </c>
+      <c r="T81">
+        <v>0.61199998855590798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2888,8 +3986,53 @@
       <c r="C82">
         <v>0.36699986457824701</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="E82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>13</v>
+      </c>
+      <c r="O82">
+        <v>37</v>
+      </c>
+      <c r="P82">
+        <v>100</v>
+      </c>
+      <c r="R82" t="s">
+        <v>40</v>
+      </c>
+      <c r="S82">
+        <v>15</v>
+      </c>
+      <c r="T82">
+        <v>0.10899996757507301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2899,8 +4042,53 @@
       <c r="C83">
         <v>0.394000053405761</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="E83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>12</v>
+      </c>
+      <c r="O83">
+        <v>34</v>
+      </c>
+      <c r="P83">
+        <v>100</v>
+      </c>
+      <c r="R83" t="s">
+        <v>1</v>
+      </c>
+      <c r="S83" t="s">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2910,8 +4098,53 @@
       <c r="C84">
         <v>0.134999990463256</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="E84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>7</v>
+      </c>
+      <c r="N84">
+        <v>16</v>
+      </c>
+      <c r="O84">
+        <v>40</v>
+      </c>
+      <c r="P84">
+        <v>100</v>
+      </c>
+      <c r="R84" t="s">
+        <v>36</v>
+      </c>
+      <c r="S84">
+        <v>50</v>
+      </c>
+      <c r="T84">
+        <v>8.9999914169311496E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2921,8 +4154,53 @@
       <c r="C85">
         <v>1.6119999885559</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="E85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>11</v>
+      </c>
+      <c r="O85">
+        <v>36</v>
+      </c>
+      <c r="P85">
+        <v>100</v>
+      </c>
+      <c r="R85" t="s">
+        <v>37</v>
+      </c>
+      <c r="S85">
+        <v>95</v>
+      </c>
+      <c r="T85">
+        <v>0.61300015449523904</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -2932,8 +4210,53 @@
       <c r="C86">
         <v>0.787999868392944</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="E86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>5</v>
+      </c>
+      <c r="N86">
+        <v>14</v>
+      </c>
+      <c r="O86">
+        <v>39</v>
+      </c>
+      <c r="P86">
+        <v>100</v>
+      </c>
+      <c r="R86" t="s">
+        <v>38</v>
+      </c>
+      <c r="S86">
+        <v>37</v>
+      </c>
+      <c r="T86">
+        <v>0.62800002098083496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -2943,8 +4266,53 @@
       <c r="C87">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="E87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
+      <c r="N87">
+        <v>12</v>
+      </c>
+      <c r="O87">
+        <v>35</v>
+      </c>
+      <c r="P87">
+        <v>100</v>
+      </c>
+      <c r="R87" t="s">
+        <v>39</v>
+      </c>
+      <c r="S87">
+        <v>35</v>
+      </c>
+      <c r="T87">
+        <v>0.59200000762939398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -2954,8 +4322,53 @@
       <c r="C88">
         <v>0.48399996757507302</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="E88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88">
+        <v>15</v>
+      </c>
+      <c r="O88">
+        <v>38</v>
+      </c>
+      <c r="P88">
+        <v>100</v>
+      </c>
+      <c r="R88" t="s">
+        <v>40</v>
+      </c>
+      <c r="S88">
+        <v>38</v>
+      </c>
+      <c r="T88">
+        <v>9.4000101089477497E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -2965,8 +4378,17 @@
       <c r="C89">
         <v>0.109999895095825</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="R89" t="s">
+        <v>1</v>
+      </c>
+      <c r="S89" t="s">
+        <v>2</v>
+      </c>
+      <c r="T89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -2976,8 +4398,17 @@
       <c r="C90" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="R90" t="s">
+        <v>36</v>
+      </c>
+      <c r="S90">
+        <v>100</v>
+      </c>
+      <c r="T90">
+        <v>7.8000068664550698E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2987,8 +4418,17 @@
       <c r="C91">
         <v>0.35999989509582497</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="R91" t="s">
+        <v>37</v>
+      </c>
+      <c r="S91">
+        <v>100</v>
+      </c>
+      <c r="T91">
+        <v>0.60899996757507302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2998,8 +4438,18 @@
       <c r="C92">
         <v>0.54600000381469704</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="E92" s="3"/>
+      <c r="R92" t="s">
+        <v>38</v>
+      </c>
+      <c r="S92">
+        <v>100</v>
+      </c>
+      <c r="T92">
+        <v>1.17000007629394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3009,8 +4459,57 @@
       <c r="C93">
         <v>0.450999975204467</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="E93" s="4"/>
+      <c r="H93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3020,8 +4519,57 @@
       <c r="C94">
         <v>0.50900006294250399</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="E94" s="3"/>
+      <c r="H94" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+      <c r="J94">
+        <v>38</v>
+      </c>
+      <c r="K94">
+        <v>56</v>
+      </c>
+      <c r="L94">
+        <v>90</v>
+      </c>
+      <c r="M94">
+        <v>5</v>
+      </c>
+      <c r="N94">
+        <v>60</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3031,8 +4579,57 @@
       <c r="C95">
         <v>0.14100003242492601</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="E95" s="4"/>
+      <c r="H95" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I95">
+        <v>100</v>
+      </c>
+      <c r="J95">
+        <v>44</v>
+      </c>
+      <c r="K95">
+        <v>62</v>
+      </c>
+      <c r="L95">
+        <v>91</v>
+      </c>
+      <c r="M95">
+        <v>6</v>
+      </c>
+      <c r="N95">
+        <v>66</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3042,8 +4639,57 @@
       <c r="C96">
         <v>1.9079999923705999</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="E96" s="4"/>
+      <c r="H96" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I96">
+        <v>100</v>
+      </c>
+      <c r="J96">
+        <v>50</v>
+      </c>
+      <c r="K96">
+        <v>67</v>
+      </c>
+      <c r="L96">
+        <v>92</v>
+      </c>
+      <c r="M96">
+        <v>7</v>
+      </c>
+      <c r="N96">
+        <v>71</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3053,8 +4699,57 @@
       <c r="C97">
         <v>0.78900003433227495</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="E97" s="4"/>
+      <c r="H97" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <v>56</v>
+      </c>
+      <c r="K97">
+        <v>72</v>
+      </c>
+      <c r="L97">
+        <v>93</v>
+      </c>
+      <c r="M97">
+        <v>8</v>
+      </c>
+      <c r="N97">
+        <v>76</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -3064,8 +4759,57 @@
       <c r="C98">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="E98" s="4"/>
+      <c r="H98" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I98">
+        <v>100</v>
+      </c>
+      <c r="J98">
+        <v>60</v>
+      </c>
+      <c r="K98">
+        <v>76</v>
+      </c>
+      <c r="L98">
+        <v>93</v>
+      </c>
+      <c r="M98">
+        <v>10</v>
+      </c>
+      <c r="N98">
+        <v>79</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -3075,8 +4819,57 @@
       <c r="C99">
         <v>0.48799991607665999</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="E99" s="4"/>
+      <c r="H99" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I99">
+        <v>100</v>
+      </c>
+      <c r="J99">
+        <v>65</v>
+      </c>
+      <c r="K99">
+        <v>80</v>
+      </c>
+      <c r="L99">
+        <v>94</v>
+      </c>
+      <c r="M99">
+        <v>11</v>
+      </c>
+      <c r="N99">
+        <v>83</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -3086,8 +4879,57 @@
       <c r="C100">
         <v>0.144000053405761</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="E100" s="4"/>
+      <c r="H100" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I100">
+        <v>100</v>
+      </c>
+      <c r="J100">
+        <v>70</v>
+      </c>
+      <c r="K100">
+        <v>83</v>
+      </c>
+      <c r="L100">
+        <v>95</v>
+      </c>
+      <c r="M100">
+        <v>13</v>
+      </c>
+      <c r="N100">
+        <v>86</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+      <c r="V100">
+        <v>1</v>
+      </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -3097,8 +4939,57 @@
       <c r="C101" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="E101" s="4"/>
+      <c r="H101" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>74</v>
+      </c>
+      <c r="K101">
+        <v>86</v>
+      </c>
+      <c r="L101">
+        <v>95</v>
+      </c>
+      <c r="M101">
+        <v>18</v>
+      </c>
+      <c r="N101">
+        <v>88</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
+        <v>4</v>
+      </c>
+      <c r="Q101">
+        <v>4</v>
+      </c>
+      <c r="R101">
+        <v>4</v>
+      </c>
+      <c r="S101">
+        <v>7</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>5</v>
+      </c>
+      <c r="V101">
+        <v>4</v>
+      </c>
+      <c r="W101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -3108,8 +4999,57 @@
       <c r="C102">
         <v>0.36299991607665999</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="E102" s="3"/>
+      <c r="H102" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I102">
+        <v>100</v>
+      </c>
+      <c r="J102">
+        <v>81</v>
+      </c>
+      <c r="K102">
+        <v>89</v>
+      </c>
+      <c r="L102">
+        <v>96</v>
+      </c>
+      <c r="M102">
+        <v>28</v>
+      </c>
+      <c r="N102">
+        <v>91</v>
+      </c>
+      <c r="O102">
+        <v>12</v>
+      </c>
+      <c r="P102">
+        <v>12</v>
+      </c>
+      <c r="Q102">
+        <v>13</v>
+      </c>
+      <c r="R102">
+        <v>12</v>
+      </c>
+      <c r="S102">
+        <v>16</v>
+      </c>
+      <c r="T102">
+        <v>11</v>
+      </c>
+      <c r="U102">
+        <v>14</v>
+      </c>
+      <c r="V102">
+        <v>12</v>
+      </c>
+      <c r="W102">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -3119,8 +5059,57 @@
       <c r="C103">
         <v>0.39499998092651301</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="E103" s="4"/>
+      <c r="H103" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="I103">
+        <v>100</v>
+      </c>
+      <c r="J103">
+        <v>88</v>
+      </c>
+      <c r="K103">
+        <v>93</v>
+      </c>
+      <c r="L103">
+        <v>97</v>
+      </c>
+      <c r="M103">
+        <v>50</v>
+      </c>
+      <c r="N103">
+        <v>95</v>
+      </c>
+      <c r="O103">
+        <v>37</v>
+      </c>
+      <c r="P103">
+        <v>36</v>
+      </c>
+      <c r="Q103">
+        <v>37</v>
+      </c>
+      <c r="R103">
+        <v>34</v>
+      </c>
+      <c r="S103">
+        <v>40</v>
+      </c>
+      <c r="T103">
+        <v>36</v>
+      </c>
+      <c r="U103">
+        <v>39</v>
+      </c>
+      <c r="V103">
+        <v>35</v>
+      </c>
+      <c r="W103">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -3130,8 +5119,57 @@
       <c r="C104">
         <v>0.34800004959106401</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="E104" s="3"/>
+      <c r="H104" s="2">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>100</v>
+      </c>
+      <c r="J104">
+        <v>100</v>
+      </c>
+      <c r="K104">
+        <v>100</v>
+      </c>
+      <c r="L104">
+        <v>100</v>
+      </c>
+      <c r="M104">
+        <v>100</v>
+      </c>
+      <c r="N104">
+        <v>100</v>
+      </c>
+      <c r="O104">
+        <v>100</v>
+      </c>
+      <c r="P104">
+        <v>100</v>
+      </c>
+      <c r="Q104">
+        <v>100</v>
+      </c>
+      <c r="R104">
+        <v>100</v>
+      </c>
+      <c r="S104">
+        <v>100</v>
+      </c>
+      <c r="T104">
+        <v>100</v>
+      </c>
+      <c r="U104">
+        <v>100</v>
+      </c>
+      <c r="V104">
+        <v>100</v>
+      </c>
+      <c r="W104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3142,7 +5180,7 @@
         <v>0.39199995994567799</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:23">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3153,7 +5191,7 @@
         <v>0.12299990653991601</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:23">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -3164,7 +5202,7 @@
         <v>1.95099997520446</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:23">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -3175,7 +5213,7 @@
         <v>1.04900002479553</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:23">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -3186,7 +5224,7 @@
         <v>0.14100003242492601</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:23">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -3197,7 +5235,7 @@
         <v>0.64400005340576105</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:23">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -3208,7 +5246,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:23">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -5752,8 +7790,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/database/KNN/Akaze_knn.xlsx
+++ b/database/KNN/Akaze_knn.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="63">
   <si>
     <t>AKAZE</t>
   </si>
@@ -186,6 +186,51 @@
   </si>
   <si>
     <t>Colonne12</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>rotated_45</t>
+  </si>
+  <si>
+    <t>rotated_90</t>
+  </si>
+  <si>
+    <t>cropped</t>
+  </si>
+  <si>
+    <t>blurred</t>
+  </si>
+  <si>
+    <t>luminous</t>
+  </si>
+  <si>
+    <t>other1</t>
+  </si>
+  <si>
+    <t>other2</t>
+  </si>
+  <si>
+    <t>other3</t>
+  </si>
+  <si>
+    <t>other4</t>
+  </si>
+  <si>
+    <t>other5</t>
+  </si>
+  <si>
+    <t>other6</t>
+  </si>
+  <si>
+    <t>other7</t>
+  </si>
+  <si>
+    <t>other8</t>
+  </si>
+  <si>
+    <t>other9</t>
   </si>
 </sst>
 </file>
@@ -593,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L87" workbookViewId="0">
-      <selection activeCell="W104" sqref="I104:W104"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -809,7 +854,7 @@
         <v>0.37599992752075101</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G15">
         <v>100</v>
@@ -856,7 +901,7 @@
         <v>0.355999946594238</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>38</v>
@@ -903,7 +948,7 @@
         <v>0.37900018692016602</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>56</v>
@@ -950,7 +995,7 @@
         <v>0.115000009536743</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G18">
         <v>90</v>
@@ -997,7 +1042,7 @@
         <v>1.46800017356872</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -1044,7 +1089,7 @@
         <v>0.78699994087219205</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G20">
         <v>60</v>
@@ -1091,7 +1136,7 @@
         <v>0.134999990463256</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1138,7 +1183,7 @@
         <v>0.48499989509582497</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1185,7 +1230,7 @@
         <v>0.105999946594238</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1232,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1279,7 +1324,7 @@
         <v>0.35300016403198198</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1326,7 +1371,7 @@
         <v>0.39199995994567799</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1373,7 +1418,7 @@
         <v>0.34400010108947698</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1420,7 +1465,7 @@
         <v>0.404000043869018</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1467,7 +1512,7 @@
         <v>0.125</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>0</v>
